--- a/database/industries/siman/seshargh/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/siman/seshargh/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2687E3B9-75F8-45B3-852C-D62E92871482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEC34F8-B855-45C0-A23B-F7E6A3D39D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>3 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>3 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>6 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-19 (10)</t>
-  </si>
-  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,16 +85,19 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-02-21 (2)</t>
+    <t>1402-01-30 (3)</t>
   </si>
   <si>
     <t>1401-04-29</t>
   </si>
   <si>
-    <t>1401-10-29 (3)</t>
+    <t>1402-01-30 (4)</t>
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-01-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="4" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +822,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>3433069</v>
+        <v>1219476</v>
       </c>
       <c r="E11" s="13">
-        <v>1219476</v>
+        <v>2370125</v>
       </c>
       <c r="F11" s="13">
-        <v>2370125</v>
+        <v>4209298</v>
       </c>
       <c r="G11" s="13">
-        <v>4209298</v>
+        <v>5757814</v>
       </c>
       <c r="H11" s="13">
-        <v>5757814</v>
+        <v>1762820</v>
       </c>
       <c r="I11" s="13">
-        <v>1762820</v>
+        <v>3232505</v>
       </c>
       <c r="J11" s="13">
-        <v>3424743</v>
+        <v>5238548</v>
       </c>
       <c r="K11" s="13">
-        <v>5238548</v>
+        <v>7182656</v>
       </c>
       <c r="L11" s="13">
-        <v>7182656</v>
+        <v>2297475</v>
       </c>
       <c r="M11" s="13">
-        <v>2297475</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4359899</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-2260572</v>
+        <v>-700724</v>
       </c>
       <c r="E12" s="11">
-        <v>-700724</v>
+        <v>-1409077</v>
       </c>
       <c r="F12" s="11">
-        <v>-1409077</v>
+        <v>-2310746</v>
       </c>
       <c r="G12" s="11">
-        <v>-2310746</v>
+        <v>-3314726</v>
       </c>
       <c r="H12" s="11">
-        <v>-3314726</v>
+        <v>-852844</v>
       </c>
       <c r="I12" s="11">
-        <v>-852844</v>
+        <v>-1989060</v>
       </c>
       <c r="J12" s="11">
-        <v>-2089643</v>
+        <v>-3169517</v>
       </c>
       <c r="K12" s="11">
-        <v>-3169517</v>
+        <v>-4518294</v>
       </c>
       <c r="L12" s="11">
-        <v>-4518294</v>
+        <v>-1496391</v>
       </c>
       <c r="M12" s="11">
-        <v>-1496391</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3007934</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1172497</v>
+        <v>518752</v>
       </c>
       <c r="E13" s="15">
-        <v>518752</v>
+        <v>961048</v>
       </c>
       <c r="F13" s="15">
-        <v>961048</v>
+        <v>1898552</v>
       </c>
       <c r="G13" s="15">
-        <v>1898552</v>
+        <v>2443088</v>
       </c>
       <c r="H13" s="15">
-        <v>2443088</v>
+        <v>909976</v>
       </c>
       <c r="I13" s="15">
-        <v>909976</v>
+        <v>1243445</v>
       </c>
       <c r="J13" s="15">
-        <v>1335100</v>
+        <v>2069031</v>
       </c>
       <c r="K13" s="15">
-        <v>2069031</v>
+        <v>2664362</v>
       </c>
       <c r="L13" s="15">
-        <v>2664362</v>
+        <v>801084</v>
       </c>
       <c r="M13" s="15">
-        <v>801084</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1351965</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-278526</v>
+        <v>-64747</v>
       </c>
       <c r="E14" s="11">
-        <v>-64747</v>
+        <v>-152103</v>
       </c>
       <c r="F14" s="11">
-        <v>-152103</v>
+        <v>-314340</v>
       </c>
       <c r="G14" s="11">
-        <v>-314340</v>
+        <v>-614077</v>
       </c>
       <c r="H14" s="11">
-        <v>-614077</v>
+        <v>-97235</v>
       </c>
       <c r="I14" s="11">
-        <v>-97235</v>
+        <v>-235353</v>
       </c>
       <c r="J14" s="11">
-        <v>-243884</v>
+        <v>-385170</v>
       </c>
       <c r="K14" s="11">
-        <v>-385170</v>
+        <v>-565326</v>
       </c>
       <c r="L14" s="11">
-        <v>-565326</v>
+        <v>-218482</v>
       </c>
       <c r="M14" s="11">
-        <v>-218482</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-418181</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,259 +1002,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-16717</v>
+        <v>5282</v>
       </c>
       <c r="E16" s="11">
-        <v>5282</v>
+        <v>-4650</v>
       </c>
       <c r="F16" s="11">
-        <v>-4650</v>
+        <v>-7011</v>
       </c>
       <c r="G16" s="11">
-        <v>-7011</v>
+        <v>-76821</v>
       </c>
       <c r="H16" s="11">
-        <v>-76821</v>
+        <v>41126</v>
       </c>
       <c r="I16" s="11">
-        <v>41126</v>
+        <v>50305</v>
       </c>
       <c r="J16" s="11">
-        <v>50305</v>
+        <v>54691</v>
       </c>
       <c r="K16" s="11">
-        <v>54691</v>
+        <v>44228</v>
       </c>
       <c r="L16" s="11">
-        <v>44228</v>
+        <v>0</v>
       </c>
       <c r="M16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>877254</v>
+        <v>459287</v>
       </c>
       <c r="E17" s="15">
-        <v>459287</v>
+        <v>804295</v>
       </c>
       <c r="F17" s="15">
-        <v>804295</v>
+        <v>1577201</v>
       </c>
       <c r="G17" s="15">
-        <v>1577201</v>
+        <v>1752190</v>
       </c>
       <c r="H17" s="15">
-        <v>1752190</v>
+        <v>853867</v>
       </c>
       <c r="I17" s="15">
-        <v>853867</v>
+        <v>1058397</v>
       </c>
       <c r="J17" s="15">
-        <v>1141521</v>
+        <v>1738552</v>
       </c>
       <c r="K17" s="15">
-        <v>1738552</v>
+        <v>2143264</v>
       </c>
       <c r="L17" s="15">
-        <v>2143264</v>
+        <v>582602</v>
       </c>
       <c r="M17" s="15">
-        <v>582602</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>934987</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-193404</v>
+        <v>-39711</v>
       </c>
       <c r="E18" s="11">
-        <v>-39711</v>
+        <v>-81251</v>
       </c>
       <c r="F18" s="11">
-        <v>-81251</v>
+        <v>-128868</v>
       </c>
       <c r="G18" s="11">
-        <v>-128868</v>
+        <v>-186707</v>
       </c>
       <c r="H18" s="11">
-        <v>-186707</v>
+        <v>-62500</v>
       </c>
       <c r="I18" s="11">
-        <v>-62500</v>
+        <v>-51422</v>
       </c>
       <c r="J18" s="11">
-        <v>-51422</v>
+        <v>-77319</v>
       </c>
       <c r="K18" s="11">
-        <v>-77319</v>
+        <v>-102282</v>
       </c>
       <c r="L18" s="11">
-        <v>-102282</v>
+        <v>-29437</v>
       </c>
       <c r="M18" s="11">
-        <v>-29437</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-87107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>268347</v>
+        <v>971</v>
       </c>
       <c r="E19" s="13">
-        <v>971</v>
+        <v>42198</v>
       </c>
       <c r="F19" s="13">
-        <v>42198</v>
+        <v>59903</v>
       </c>
       <c r="G19" s="13">
-        <v>59903</v>
+        <v>1117927</v>
       </c>
       <c r="H19" s="13">
-        <v>1117927</v>
+        <v>16190</v>
       </c>
       <c r="I19" s="13">
-        <v>16190</v>
+        <v>213925</v>
       </c>
       <c r="J19" s="13">
-        <v>213925</v>
+        <v>314648</v>
       </c>
       <c r="K19" s="13">
-        <v>314648</v>
+        <v>2090990</v>
       </c>
       <c r="L19" s="13">
-        <v>2090990</v>
+        <v>93106</v>
       </c>
       <c r="M19" s="13">
-        <v>93106</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>577833</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>952197</v>
+        <v>420547</v>
       </c>
       <c r="E20" s="17">
-        <v>420547</v>
+        <v>765242</v>
       </c>
       <c r="F20" s="17">
-        <v>765242</v>
+        <v>1508236</v>
       </c>
       <c r="G20" s="17">
-        <v>1508236</v>
+        <v>2683410</v>
       </c>
       <c r="H20" s="17">
-        <v>2683410</v>
+        <v>807557</v>
       </c>
       <c r="I20" s="17">
-        <v>807557</v>
+        <v>1220900</v>
       </c>
       <c r="J20" s="17">
-        <v>1304024</v>
+        <v>1975881</v>
       </c>
       <c r="K20" s="17">
-        <v>1975881</v>
+        <v>4131972</v>
       </c>
       <c r="L20" s="17">
-        <v>4131972</v>
+        <v>646271</v>
       </c>
       <c r="M20" s="17">
-        <v>646271</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1425713</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-88165</v>
+        <v>-96706</v>
       </c>
       <c r="E21" s="13">
-        <v>-96706</v>
+        <v>-97134</v>
       </c>
       <c r="F21" s="13">
-        <v>-97134</v>
+        <v>-269062</v>
       </c>
       <c r="G21" s="13">
-        <v>-269062</v>
+        <v>-339740</v>
       </c>
       <c r="H21" s="13">
-        <v>-339740</v>
+        <v>-161511</v>
       </c>
       <c r="I21" s="13">
-        <v>-161511</v>
+        <v>-85614</v>
       </c>
       <c r="J21" s="13">
-        <v>-98083</v>
+        <v>-187709</v>
       </c>
       <c r="K21" s="13">
-        <v>-187709</v>
+        <v>-213056</v>
       </c>
       <c r="L21" s="13">
-        <v>-213056</v>
+        <v>-45239</v>
       </c>
       <c r="M21" s="13">
-        <v>-45239</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-92845</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>864032</v>
+        <v>323841</v>
       </c>
       <c r="E22" s="17">
-        <v>323841</v>
+        <v>668108</v>
       </c>
       <c r="F22" s="17">
-        <v>668108</v>
+        <v>1239174</v>
       </c>
       <c r="G22" s="17">
-        <v>1239174</v>
+        <v>2343670</v>
       </c>
       <c r="H22" s="17">
-        <v>2343670</v>
+        <v>646046</v>
       </c>
       <c r="I22" s="17">
-        <v>646046</v>
+        <v>1135286</v>
       </c>
       <c r="J22" s="17">
-        <v>1205941</v>
+        <v>1788172</v>
       </c>
       <c r="K22" s="17">
-        <v>1788172</v>
+        <v>3918916</v>
       </c>
       <c r="L22" s="17">
-        <v>3918916</v>
+        <v>601032</v>
       </c>
       <c r="M22" s="17">
-        <v>601032</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1332868</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1276,94 +1275,94 @@
         <v>0</v>
       </c>
       <c r="I23" s="13">
-        <v>0</v>
+        <v>70655</v>
       </c>
       <c r="J23" s="13">
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="L23" s="13">
-        <v>155000</v>
+        <v>0</v>
       </c>
       <c r="M23" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>864032</v>
+        <v>323841</v>
       </c>
       <c r="E24" s="17">
-        <v>323841</v>
+        <v>668108</v>
       </c>
       <c r="F24" s="17">
-        <v>668108</v>
+        <v>1239174</v>
       </c>
       <c r="G24" s="17">
-        <v>1239174</v>
+        <v>2465200</v>
       </c>
       <c r="H24" s="17">
-        <v>2465200</v>
+        <v>646046</v>
       </c>
       <c r="I24" s="17">
-        <v>646046</v>
+        <v>1205941</v>
       </c>
       <c r="J24" s="17">
-        <v>1205941</v>
+        <v>1788172</v>
       </c>
       <c r="K24" s="17">
-        <v>1788172</v>
+        <v>4073916</v>
       </c>
       <c r="L24" s="17">
-        <v>4073916</v>
+        <v>601032</v>
       </c>
       <c r="M24" s="17">
-        <v>601032</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1332868</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>326</v>
+        <v>122</v>
       </c>
       <c r="E25" s="13">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="F25" s="13">
-        <v>252</v>
+        <v>467</v>
       </c>
       <c r="G25" s="13">
-        <v>467</v>
+        <v>929</v>
       </c>
       <c r="H25" s="13">
-        <v>929</v>
+        <v>243</v>
       </c>
       <c r="I25" s="13">
-        <v>243</v>
+        <v>454</v>
       </c>
       <c r="J25" s="13">
-        <v>454</v>
+        <v>674</v>
       </c>
       <c r="K25" s="13">
-        <v>674</v>
+        <v>1535</v>
       </c>
       <c r="L25" s="13">
-        <v>1535</v>
+        <v>227</v>
       </c>
       <c r="M25" s="13">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1399,43 +1398,43 @@
         <v>2653560</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>326</v>
+        <v>122</v>
       </c>
       <c r="E27" s="13">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="F27" s="13">
-        <v>252</v>
+        <v>467</v>
       </c>
       <c r="G27" s="13">
-        <v>467</v>
+        <v>929</v>
       </c>
       <c r="H27" s="13">
-        <v>929</v>
+        <v>243</v>
       </c>
       <c r="I27" s="13">
-        <v>243</v>
+        <v>454</v>
       </c>
       <c r="J27" s="13">
-        <v>454</v>
+        <v>674</v>
       </c>
       <c r="K27" s="13">
-        <v>674</v>
+        <v>1535</v>
       </c>
       <c r="L27" s="13">
-        <v>1535</v>
+        <v>227</v>
       </c>
       <c r="M27" s="13">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
